--- a/easytest/自动化测试/testcase.xlsx
+++ b/easytest/自动化测试/testcase.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试套件" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,9 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">测试元素!$A$1:$A$12</definedName>
     <definedName name="操作方法">#REF!</definedName>
+    <definedName name="测试对象">测试元素!$B$2:$B$1048576</definedName>
     <definedName name="页面对象">[1]测试元素!$A$2:$A$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>测试步骤</t>
   </si>
@@ -81,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Logon_UserEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Logon_PostCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,10 +148,6 @@
   </si>
   <si>
     <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://c.highpin.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -283,6 +277,18 @@
   </si>
   <si>
     <t>assertTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://c.highpin.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logon_UserEmail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,11 +344,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -370,7 +379,7 @@
       <sheetName val="操盘计划用例"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="A2" t="str">
@@ -383,8 +392,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -680,7 +689,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,61 +700,66 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -756,7 +770,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -778,10 +792,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -790,15 +804,15 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -806,37 +820,40 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"get,send_keys,click"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>页面对象</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>测试对象</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -848,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -871,10 +888,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -892,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -900,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -917,10 +934,10 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -931,9 +948,9 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4">
         <v>1234</v>
       </c>
     </row>
@@ -945,54 +962,58 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>页面对象</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"get,send_keys,click,assertText,assertTitle"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>测试对象</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1000,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1014,13 +1035,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1028,7 +1049,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1037,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1045,13 +1066,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1062,7 +1083,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1076,10 +1097,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1090,10 +1111,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -1104,10 +1125,10 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -1118,66 +1139,66 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
